--- a/Hardware/Parts.xlsx
+++ b/Hardware/Parts.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Eagle Projects\Othello\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\OneDrive\Documents\_MyStuff\Github\STM32Othello\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8FBB3F-A997-4A0D-9B93-52ACE88394C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43877FFC-77F9-45C2-9E10-0B04DE4D7BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="-108" windowWidth="21336" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>QTY</t>
   </si>
@@ -46,12 +45,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>ED10533-ND</t>
-  </si>
-  <si>
-    <t>CONN HEADER R/A 10POS 2.54MM</t>
-  </si>
-  <si>
     <t>OS102011MS2QN1</t>
   </si>
   <si>
@@ -79,24 +72,12 @@
     <t>BAT1</t>
   </si>
   <si>
-    <t>Thru hole is PTS645SL43-2 LFS</t>
-  </si>
-  <si>
-    <t>Need non-shorting (BBM) end in N1 rather than S1. Substitute with "C" on the end (high temp resin)</t>
-  </si>
-  <si>
     <t>CKN9565-ND</t>
   </si>
   <si>
-    <t>RIGHT ANGLE $0.53 On Shore, substitute with 732-2098-ND Wurth 0.63 (vertical S9169-ND)</t>
-  </si>
-  <si>
     <t>CKN10880CT-ND</t>
   </si>
   <si>
-    <t>302-R101</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -188,6 +169,36 @@
   </si>
   <si>
     <t>Was STM32L412KBT6 has 128KB flash</t>
+  </si>
+  <si>
+    <t>LED Matrix</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/2251832466712520.html?spm=a2g0o.order_list.order_list_main.32.57631802u8VLss&amp;gatewayAdapt=glo2usa</t>
+  </si>
+  <si>
+    <t>Many similar boards are available and will work if they are WS2812B LEDs. To fit PCB, look for those with three 0.1 spaced holes near each corner which are used for pwr, gnd, and io</t>
+  </si>
+  <si>
+    <t>50-1000pcs HD107S(Similar APA102) LED Chip 5050 2020 RGB Intelligent Control Integrated LED Light Source APA107S Chip 26+kHz PWM - AliExpress 39</t>
+  </si>
+  <si>
+    <t>HD107S LEDS</t>
+  </si>
+  <si>
+    <t>Can substitute SK9822</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS 2.54MM</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D05-ST-BK</t>
+  </si>
+  <si>
+    <t>S9169-ND</t>
+  </si>
+  <si>
+    <t>Need non-shorting (BBM) end in N1 rather than S1. Can substitute with "C" on the end (high temp resin)</t>
   </si>
 </sst>
 </file>
@@ -195,9 +206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +236,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -249,21 +268,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,23 +564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -578,204 +600,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{E12C996C-0144-472A-AB9B-F277C8C67963}"/>
+    <hyperlink ref="C23" r:id="rId2" display="https://www.aliexpress.us/item/2261799828543945.html?spm=a2g0o.order_list.order_list_main.42.759018025Xqt53&amp;gatewayAdapt=glo2usa" xr:uid="{379B48F4-D37E-4C31-8B60-3D150F59E1C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>